--- a/Literatur/Literatur_protokoll.xlsx
+++ b/Literatur/Literatur_protokoll.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\Schule\Bachelorarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funat\Desktop\FH_Schulisches\Semester_8\ExpData\BA_Arbeit-main\Literatur\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4208D7D8-48FE-4A4D-A110-1D1CBB2900A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Feuillet Louis Pierre Lowelle [Ernst Sutter AG]</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t xml:space="preserve">Index </t>
   </si>
@@ -143,12 +144,106 @@
   </si>
   <si>
     <t>Nützlichkeit</t>
+  </si>
+  <si>
+    <t>cross-country skiing, classification</t>
+  </si>
+  <si>
+    <t>skating style</t>
+  </si>
+  <si>
+    <t>inertial measurement unit (IMU)</t>
+  </si>
+  <si>
+    <t>deep learning</t>
+  </si>
+  <si>
+    <t>technique classification</t>
+  </si>
+  <si>
+    <t>Savitzky-Golay</t>
+  </si>
+  <si>
+    <t>Automatic Classification of Sub-Techniques in Classical Cross-Country Skiing Using a Machine Learning Algorithm on Micro-Sensor Data</t>
+  </si>
+  <si>
+    <t>Indoor, Geradeaus</t>
+  </si>
+  <si>
+    <t>IMU</t>
+  </si>
+  <si>
+    <t>Anzahl Strecken</t>
+  </si>
+  <si>
+    <t>Testing = 2</t>
+  </si>
+  <si>
+    <t>Ort der Sensoren</t>
+  </si>
+  <si>
+    <t>Arm, Brust</t>
+  </si>
+  <si>
+    <t>Anzahl Datensätze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIA – Diagonalschritt 
+DK – Doppelstockschub mit Zwischenschritt 
+DP – Doppelstockschub 
+TCK – Halbgleitender Doppelstockschub 
+TRN – Wendebewegung 
+HRB – Rückwärtsbewegung 
+tDIA – Übergang zu DIA 
+fDIA – Übergang von DIA zu einer anderen Technik </t>
+  </si>
+  <si>
+    <t>Proffesionell + amateur</t>
+  </si>
+  <si>
+    <t>Jeder Zyklus wurde so umgerechnet, dass genau 30 gleichmäßig verteilte Samples pro Zyklus vorhanden sind. Ein Gaussian Low-Pass Filter (Tiefpassfilter) mit einer Standardabweichung von 0,0875 s. Die 3 Achsen des Beschleunigungssensors liefern pro Zyklus jeweils 30 Werte, also insgesamt:30 × 3 = 90 Werte für die Rohdaten. ergibt das einen Feature-Vektor der Länge 94</t>
+  </si>
+  <si>
+    <t>Implementierung des neuronalen Netzwerks:
+Verwendet wurde die Neural Network Toolbox in MATLAB 2016a.
+Die Netzwerktopologie bestand aus drei versteckten Schichten mit:
+50 Neuronen in der ersten Schicht
+10 Neuronen in der zweiten Schicht
+20 Neuronen in der dritten Schicht
+Als Trainingsmethode wurde die Bayesian Regularization Backpropagation genutzt, um Überanpassung zu vermeiden</t>
+  </si>
+  <si>
+    <t>Trainingsdatensätze</t>
+  </si>
+  <si>
+    <t>Daten von sechs Athleten (5 Männer, 1 Frau) wurden verwendet.
+Insgesamt bestanden die Trainingsdaten aus 4308 manuell gelabelten Zyklen.
+Da Zyklen mit dem linken oder rechten Arm erfasst werden konnten, wurde eine Datenaugmentation durchgeführt:
+Flipping der y-Achse:
+Für jeden Zyklus wurden künstlich neue Daten erzeugt, indem die Werte der x- und z-Achse beibehalten, aber die y-Achse gespiegelt wurde.
+Dadurch wurde der Trainingsdatensatz verdoppelt auf 8616 Zyklen.</t>
+  </si>
+  <si>
+    <t>Konfusionsmatrizen</t>
+  </si>
+  <si>
+    <t>Spezialisierte Klassen wie HRB, tDIA und fDIA hatten geringere Sensitivität und Präzision. Alternativer Ansatz: Klassen zusammenfassen:
+Man könnte DIA, tDIA und fDIA sowie HRB in einer einzigen Klasse zusammenfassen.</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>Cross-Country Skiing Gears Classification using Deep Learning</t>
+  </si>
+  <si>
+    <t>arxiv.org</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,13 +359,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -550,573 +676,760 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="31.109375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="32.21875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="38.109375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="28" style="12" customWidth="1"/>
+    <col min="17" max="17" width="17.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.44140625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="11.5546875" style="5"/>
+    <col min="22" max="22" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="S1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="T1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="U1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="V1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="W1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="X1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B10" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="K10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="2">
+        <v>8</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Literatur/Literatur_protokoll.xlsx
+++ b/Literatur/Literatur_protokoll.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr codeName="DieseArbeitsmappe"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funat\Desktop\FH_Schulisches\Semester_8\ExpData\BA_Arbeit-main\Literatur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.corp.fenaco.com\dfs-ersag\Home\louis.feuillet\Downloads\BA_Arbeit-main\BA_Arbeit-main\Literatur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4208D7D8-48FE-4A4D-A110-1D1CBB2900A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="0" windowWidth="11715" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$X$29</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Feuillet Louis Pierre Lowelle [Ernst Sutter AG]</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="177">
   <si>
     <t xml:space="preserve">Index </t>
   </si>
@@ -239,12 +241,558 @@
   <si>
     <t>arxiv.org</t>
   </si>
+  <si>
+    <t>nicht erwähnt</t>
+  </si>
+  <si>
+    <t>verschiedene</t>
+  </si>
+  <si>
+    <t>Nicht bekannt</t>
+  </si>
+  <si>
+    <t>Accelerometer</t>
+  </si>
+  <si>
+    <t>Gear 2 und Gear 3</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Networks (CNN)
+Recurrent Neural Networks (RNN) mit LSTM (Long Short-Term Memory)
+Multi-Layer Perceptron (MLP)</t>
+  </si>
+  <si>
+    <t>Deep Learning wurde genutzt, um Merkmale automatisch zu extrahieren</t>
+  </si>
+  <si>
+    <t>Klassifikationsfehler (Testing Classification Error)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LSTM mit  Fehler von 1,6%
+CNN mit 2,4% Fehler</t>
+  </si>
+  <si>
+    <t>nicht vorhannden</t>
+  </si>
+  <si>
+    <t>A multi-sensor system for automatic analysis of classical crosscountry skiing techniques</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>11 (10 Männer, 1 Frau)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> unterschiedliche Geländetypen (flach, bergig, Wettkampfstrecken)</t>
+  </si>
+  <si>
+    <t>Inertial Measurement Units (IMUs)
+Herzfrequenzsensor
+GNSS (GPS/GLONASS)
+Barometrischer Höhenmesser</t>
+  </si>
+  <si>
+    <t>Brust
+Oberer Rücken
+Unterer Rücken
+Linker Arm
+Rechter Arm
+Linkes Bein
+Rechtes Bein</t>
+  </si>
+  <si>
+    <t>DIA: Diagonale Bewegung, genutzt für steilere Anstiege
+DP: Beide Arme gleichzeitig, genutzt auf flachen Strecken
+DK: Mischung aus DP und einem Beinabstoß für Übergangsbereiche</t>
+  </si>
+  <si>
+    <t>Synchronisierung aller Sensordaten
+Berechnung der Phasenverschiebung zwischen Körpersegmenten
+Erkennung wiederholender Bewegungsmuster</t>
+  </si>
+  <si>
+    <t>Sensitivität der Technikklassifikation (99–100%)
+Präzision der Klassifikation (99–100%)</t>
+  </si>
+  <si>
+    <t>Profis nutzten effizienter DP und DK, während Amateure häufiger DIA verwendeten</t>
+  </si>
+  <si>
+    <t>Verbesserung der drahtlosen Sensorverbindungen zur Reduzierung von Datenverlust</t>
+  </si>
+  <si>
+    <t>Unter verschiedenen Umweltbedingungen gesammelt (Temperaturen von -18°C bis +10°C, unterschiedliche Schneebedingungen)</t>
+  </si>
+  <si>
+    <t>Korrelation der Winkelgeschwindigkeiten von Armen und Beinen
+Regelbasierte Entscheidungskriterien zur Klassifikation
+Validierung durch Videoanalyse</t>
+  </si>
+  <si>
+    <t>9 Stunden</t>
+  </si>
+  <si>
+    <t>Assessment of Basic Motions and Technique Identification in Classical Cross-Country Skiing</t>
+  </si>
+  <si>
+    <t>Proffesionell</t>
+  </si>
+  <si>
+    <t>Strecke mit verschiedenen Höhenprofilen</t>
+  </si>
+  <si>
+    <t>Brust</t>
+  </si>
+  <si>
+    <t>Brust
+Unterer Rücken
+Handgelenke (beide Arme)
+Vor den Skibindungen (beide Ski)</t>
+  </si>
+  <si>
+    <t>DIA: Armschwingen gegenläufig zu den Beinen, genutzt für Steigungen
+DP: Beide Arme gleichzeitig, flache Strecken
+DK: Kombination aus DP mit einem Beinabstoß
+HRB: Steile Anstiege mit V-förmiger Skistellung
+rK: Beinbewegung mit Rotation, oft in Kurven genutzt
+DPrK: Kombination aus DP und rK</t>
+  </si>
+  <si>
+    <t>Regelbasierte Klassifikation basierend auf Bewegungskomponenten
+Berechnung von Arm-Synchronisation, Beinbewegung, Fußrotation etc.
+Toleranzbereiche für verschiedene Skitechniken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berechnung von Arm-Synchronisation
+Analyse der Beinbewegung im sagittalen und transversalen Bereich
+Messung der Fußrotation und Skiorientierung
+</t>
+  </si>
+  <si>
+    <t>1 Strecke, 7 Runden</t>
+  </si>
+  <si>
+    <t>mdpi.com</t>
+  </si>
+  <si>
+    <t>Entscheidungsfunktion</t>
+  </si>
+  <si>
+    <t>Classification of Cross-Country Ski Skating Sub-Technique Can Be Automated Using Carrier-Phase Differential GNSS Measurements of the Head’s Position</t>
+  </si>
+  <si>
+    <t>510 Bewegungszyklen</t>
+  </si>
+  <si>
+    <t>Indoor-Treadmill</t>
+  </si>
+  <si>
+    <t>6 Elite-Skilangläufer für die Entwicklung des Modells auf einem Laufband
+2 Skilangläufer für die Validierung auf einer Outdoor-Roller-Ski-Strecke</t>
+  </si>
+  <si>
+    <t>Carrier-Phase Differential GNSS (dGNSS)</t>
+  </si>
+  <si>
+    <t>dGNSS-Antenne auf dem Helm
+Motion-Capture-Marker über den gesamten Körper für Indoor-Test</t>
+  </si>
+  <si>
+    <t>G2: Zwei Ski-Schübe mit einem Stockeinsatz pro Zyklus
+G3: Zwei Ski-Schübe mit zwei Stockeinsätzen pro Zyklus
+G4: Ein Ski-Schub mit einem Stockeinsatz pro Zyklus
+G5: Skating ohne Stockeinsatz
+Tuck Position: Aerodynamische Hockposition für Abfahrten</t>
+  </si>
+  <si>
+    <t>Neuronales Netzwerk (Feed-Forward Neural Network, NNC)
+ Entscheidungsregeln zur Erkennung von G5, Tuck-Position und Kurventechniken</t>
+  </si>
+  <si>
+    <t>Indoor-Treadmill-Daten zur Modellentwicklung
+Outdoor-Daten zur Validierung der Methode</t>
+  </si>
+  <si>
+    <t>Bewegungstrajektorien des Kopfes
+Seitliche und vertikale Oszillationen
+Fourier-Transformation zur Frequenzanalyse</t>
+  </si>
+  <si>
+    <t>Klassifikationsgenauigkeit für jede Sub-Technik</t>
+  </si>
+  <si>
+    <t>Klassifikationsgenauigkeit für Haupttechniken G2–G4: 92–97%
+G5 wurde nur mit 32% Genauigkeit erkannt
+Tuck-Position: 88% Genauigkeit</t>
+  </si>
+  <si>
+    <t>Hohe Übereinstimmung zwischen GNSS-Daten und manueller Klassifikation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Unified Deep-Learning Model for Classifying the
+Cross-Country Skiing Techniques Using Wearable
+Gyroscope Sensors
+</t>
+  </si>
+  <si>
+    <t>Klassische Technik:
+Diagonal Stride (DS)
+Double Poling (DP)
+Push-Off (P-Off)
+Kick Double Poling (KDP)
+Skating-Technik:
+V2 Skate (V2)
+V2A Skate (V2A)
+V1 Skate (V1)
+Free Skate (FS)</t>
+  </si>
+  <si>
+    <t>Hände (links &amp; rechts)
+Füße (links &amp; rechts)
+Becken</t>
+  </si>
+  <si>
+    <t>87.2% auf flachem Kurs
+95.1% auf natürlichem Kurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klassifikationsgenauigkeit </t>
+  </si>
+  <si>
+    <t>CNN-LSTM-Modell übertrifft KNN deutlich (65.3% KNN vs. 91.1% CNN-LSTM), Klassifikationsgenauigkeit pro Technik war hoch, aber Verwechslungen zwischen Push-Off (P-Off) und Double Poling (DP)</t>
+  </si>
+  <si>
+    <t>Nutzung von CNN zur Extraktion von lokalen Mustern
+LSTM zur Erfassung von zeitlichen Abhängigkeiten
+Resampling der Sensordaten für konsistente Zykluslängen</t>
+  </si>
+  <si>
+    <t>Flacher Outdoor-Kurs
+Natürliche Wettkampfstrecken</t>
+  </si>
+  <si>
+    <t>Gyroskopsensoren</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Network (CNN)
+Long Short-Term Memory (LSTM) Netzwerke
+Vergleich mit k-Nearest Neighbors (KNN) als Base Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flat Course Training: Zwei Skifahrer trainiert, ein dritter getestet
+Natural Course Testing: Trainingsdaten von drei Skifahrern, neuer Skifahrer getestet
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identification of Cross-Country Skiing Movement Patterns Using Micro-Sensors </t>
+  </si>
+  <si>
+    <t>Out-door</t>
+  </si>
+  <si>
+    <t>Skating-Techniken:
+Offset Skate (G2)
+Double Time (G3)
+Single Time (G4)
+Free Skate (G5)
+Klassische Techniken:
+Double Poling (DP)
+Kick Double Poling (KDP)
+Diagonal Stride (DS)</t>
+  </si>
+  <si>
+    <t>Mikrosensor</t>
+  </si>
+  <si>
+    <t>Manuelle Mustererkennung der Sensordaten
+Interpretation durch einen erfahrenen Skilanglauf-Trainer</t>
+  </si>
+  <si>
+    <t>Athleten führten die Bewegungen 20–30 Sekunden lang auf gerader Strecke aus
+Kein maschinelles Lernen, nur regelbasierte Erkennung</t>
+  </si>
+  <si>
+    <t>Identifikation wiederholender zyklischer Muster
+Nutzung der Gyroskop- und Beschleunigungsdaten zur Erkennung von Arm- und Beinbewegungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visuelle Klassifikation </t>
+  </si>
+  <si>
+    <t>hoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Classification of the Sub-Techniques (Gears) Used in Cross-Country Ski Skating Employing a Mobile Phone </t>
+  </si>
+  <si>
+    <t>Smartphone mit integriertem Accelerometer</t>
+  </si>
+  <si>
+    <t>Art der Gears:
+G2 Left (G2L) – Stockeinsatz auf der linken Seite dominiert
+G2 Right (G2R) – Stockeinsatz auf der rechten Seite dominiert
+G3 – Gleichmäßige Doppelstocknutzung
+G4 Left (G4L) – Einbeiniges Skating mit Stockeinsatz auf der linken Seite
+G4 Right (G4R) – Einbeiniges Skating mit Stockeinsatz auf der rechten Seite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individuelle Klassifikation: Training auf Basis des ersten Testlaufs jedes Teilnehmers
+Kollektive Klassifikation: Training mit Daten mehrerer Athleten aus vorherigen Studien
+</t>
+  </si>
+  <si>
+    <t>Fehler traten besonders häufig während der Übergangsphasen zwischen Gears auf</t>
+  </si>
+  <si>
+    <t>Rauschentfernung durch Gaussian Convolution (Tiefpassfilter)
+Keine „Ringing Effects“
+Keine unerwünschten Zeitverschiebungen
+Einfache und schnelle Berechnung
+Stabil trotz variierender Sampling-Raten
+Erkennung von Bewegungszyklen:
+Gaussian Convolution mit 370 ms Standardabweichung für tieffrequente Signaltrennung
+Feature-Extraktion und Filterung:
+Zweite Gaussian Convolution mit 90 ms Standardabweichung für höhere Frequenzen
+Normierung der Bewegungszyklen:
+Resampling in 100 Schritte pro Zyklus
+Fixe Vektorgröße: 300 Dimensionen (x, y, z – je 100 Werte)
+Erzeugt konsistente Eingabe für das Machine-Learning-Modell</t>
+  </si>
+  <si>
+    <t>Markov-Kette mit multivariaten Gauß-Verteilungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear Classification in Skating Cross-Country Skiing Using Inertial Sensors and Deep Learning
+</t>
+  </si>
+  <si>
+    <t>Bergaufbereich Indoor</t>
+  </si>
+  <si>
+    <t>Ski</t>
+  </si>
+  <si>
+    <t>G2R (Asymmetrische Technik mit Poling auf der rechten Seite)
+G2L (Asymmetrische Technik mit Poling auf der linken Seite)
+G3 (Symmetrische Technik mit Doppelstockschub pro Zyklus)</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Networks (CNN)
+Long Short-Term Memory (LSTM)
+Adam-Optimizer mit Categorical Cross-Entropy Loss</t>
+  </si>
+  <si>
+    <t>Beschleunigungswerte aus x-, y-, und z-Achsen
+Zeitliche Fensterung mit 250 ms
+Daten aus 2,5 s für jede Klassifikation</t>
+  </si>
+  <si>
+    <t>80%/20%</t>
+  </si>
+  <si>
+    <t>Cross-Country Ski Skating Style Sub-Technique Detection and Skiing Characteristic Analysis on Snow Using High-Precision GNSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kinematischer GNSS-Sensor (RTK GNSS)</t>
+  </si>
+  <si>
+    <t>Kopf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2 – Asymmetrischer Stockeinsatz mit zwei Beinbewegungen
+G3 – Symmetrischer Stockeinsatz mit einem Beinabstoß
+G4 – Symmetrischer Stockeinsatz mit zwei Beinbewegungen
+G6P – Kurventechnik mit Stockeinsatz
+</t>
+  </si>
+  <si>
+    <t>Waveform-Analyse zur Klassifikation der Sub-Techniken</t>
+  </si>
+  <si>
+    <t>Entfernung der Kursneigung
+Lösung: Gleitender Mittelwert der Höhe zur Glättung der Terrainänderung:
+Course Inclination
+Bereinigung: Netto-vertikale Kopfbewegung = Altitude - Course Inclination
+b) Entfernung der Kurveneffekte
+Umwandlung LLH → ENU-Koordinaten (East-North-Up) mit MATLAB llh2enu
+Berechnung des Winkelverlaufs (θGNSS):
+Berechnung der Netto-Winkeländerung:
+Berechnung der Netto-Horizontalbewegung des Kopfes:"</t>
+  </si>
+  <si>
+    <t>Vergleich von GNSS-Daten mit Videoaufnahmen für Validierung</t>
+  </si>
+  <si>
+    <t>Klassifikationsgenauigkeit durch Vergleich mit Videoaufnahmen</t>
+  </si>
+  <si>
+    <t>Gesamtgenauigkeit: 96,0–97,7%</t>
+  </si>
+  <si>
+    <t>Automated detection and classification of movement cycles in cross-country skiing through analysis of inertial sensor data movement patterns</t>
+  </si>
+  <si>
+    <t>G2 Single time ski subtechnique
+G3 Double time ski subtechnique
+G4 Padle ski subtechnique
+G5 Free skate ski subtechnique
+DS Diagonal stride subtechnique
+DP Double poling ski subtechnique
+DPK Double pole kick ski subtechnique
+HB Herringbone ski subtechnique
+IMU Inertial Measurement Unit</t>
+  </si>
+  <si>
+    <t>Rücken</t>
+  </si>
+  <si>
+    <t>Template-Matching-Algorithmus
+Cosine Similarity Transform zur Erkennung von Bewegungsmustern
+Cluster-Analyse zur Verfeinerung der Templates</t>
+  </si>
+  <si>
+    <t>Aufgezeichnet mit Videoanalyse zur Validierung
+Vergleich von IMU-Daten mit visuellen Bewegungsmustern</t>
+  </si>
+  <si>
+    <t>Low-Pass-Filterung zur Glättung der Rohsignale
+Peakerkennung zur Segmentierung der Zyklen
+Resampling für konsistente Zykluslängen</t>
+  </si>
+  <si>
+    <t>Klassifikationsgenauigkeit</t>
+  </si>
+  <si>
+    <t>Google Scholar</t>
+  </si>
+  <si>
+    <t>Cross-Country Skiing Analysis and Ski Technique Detection by High-Precision Kinematic Global Navigation Satellite System</t>
+  </si>
+  <si>
+    <t>kinematischer GNSS-Sensor</t>
+  </si>
+  <si>
+    <t>Diagonal Stride (DIA)
+Double Poling (DP)
+Kick Double Poling (KDP)
+Herringbone (HB)
+Downhill (Tuck Position)</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glättung der Höhendaten mit 0,9 s gleitendem Mittelwert. Netto-Kopfbewegung durch Subtraktion der Gelände-Neigung von den GNSS-Höhendaten.
+</t>
+  </si>
+  <si>
+    <t>1 Person</t>
+  </si>
+  <si>
+    <t>Mittel</t>
+  </si>
+  <si>
+    <t>Methodological Guidelines Designed to Improve the Quality of Research on Cross‑Country Skiing</t>
+  </si>
+  <si>
+    <t>Beschreigung der Gears</t>
+  </si>
+  <si>
+    <t>Beschreibung Gänge und anderer Parameter</t>
+  </si>
+  <si>
+    <t>A Comparative Study of Plantar Pressure and Inertial Sensors for
+Cross-Country Ski Classification Using Deep Learning</t>
+  </si>
+  <si>
+    <t>Indoor-Skianlage</t>
+  </si>
+  <si>
+    <t>Drucksensoren (plantar pressure sensors)
+Trägheitssensoren (IMU – Accelerometer, Gyroskop, Magnetometer)</t>
+  </si>
+  <si>
+    <t>Drucksensoren in den Schuhsohlen (Big Toe, 1. Metatarsal, 5. Metatarsal, Ferse)
+IMU unter dem Fußgewölbe§</t>
+  </si>
+  <si>
+    <t>G2R (asymmetrischer Polschub, rechte Seite)
+G2L (asymmetrischer Polschub, linke Seite)
+G3 (symmetrischer Polschub pro Ski-Schub)</t>
+  </si>
+  <si>
+    <t>Hybrides Deep-Learning-Modell (CNN + LSTM)</t>
+  </si>
+  <si>
+    <t>5 Serien für Training, 3 Serien für Testing
+2-Fold-Cross-Validation zur Vermeidung von Overfitting</t>
+  </si>
+  <si>
+    <t>Glättung mit exponentiellem Moving Average-Filter
+Offset-Korrektur der Drucksensoren &amp; Normalisierung (kg/cm²)
+Fusion von Druck- und Trägheitsdaten für robustere Klassifikation
+Medianwert als statistisches Hauptmerkmal pro Zeitfenster</t>
+  </si>
+  <si>
+    <t>99% mit nur IMU-Sensoren</t>
+  </si>
+  <si>
+    <t>Identifying cross country skiing techniques using power meters in ski poles</t>
+  </si>
+  <si>
+    <t>Rollski-Strecke mit variierendem Terrain</t>
+  </si>
+  <si>
+    <t>Skisens-Power-Meter-Sensoren</t>
+  </si>
+  <si>
+    <t>Stockgriff</t>
+  </si>
+  <si>
+    <t>Double Poling (DP)
+Gear 2 (asymmetrischer Stockeinsatz, ein Poling pro zwei Skischübe)
+Gear 3 (symmetrischer Stockeinsatz, ein Poling pro Skischub)
+Gear 4 (symmetrischer Stockeinsatz, aber abwechselnd mit seitlichem Beinabstoß)</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Network (CNN)
+Long Short-Term Memory (LSTM) Netzwerk
+Bidirektionales LSTM (BLSTM)</t>
+  </si>
+  <si>
+    <t>Glättung der Kraft- und Beschleunigungsdaten
+Segmentierung der Bewegungszyklen anhand der Stockkräfte
+One-Hot-Encoding der Techniklabels für das neuronale Netz</t>
+  </si>
+  <si>
+    <t>Training auf einem Teil der Daten, Test auf anderem Tei</t>
+  </si>
+  <si>
+    <t>95% Genauigkeit bei der Technikklassifikation</t>
+  </si>
+  <si>
+    <t>Embedded inertial measurement unit reveals pole lean angle
+for cross‑country skiing</t>
+  </si>
+  <si>
+    <t>Flacher Outdoor-Kurs</t>
+  </si>
+  <si>
+    <t>Nur Double Poling (DP)</t>
+  </si>
+  <si>
+    <t>Skistock</t>
+  </si>
+  <si>
+    <t>Komplementärfilter zur Fusion von Beschleunigungs- &amp; Gyroskop-Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,13 +813,39 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -359,34 +933,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -396,6 +946,49 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,763 +1269,1504 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Tabelle1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle1" filterMode="1"/>
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
+      <selection pane="bottomRight" activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="112" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.6640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="31.109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="32.21875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="38.109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="28" style="12" customWidth="1"/>
-    <col min="17" max="17" width="17.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="11.5546875" style="5"/>
-    <col min="22" max="22" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.5546875" style="5"/>
+    <col min="1" max="2" width="17.42578125" style="8"/>
+    <col min="3" max="3" width="69.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="8"/>
+    <col min="6" max="6" width="27" style="8" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" style="8"/>
+    <col min="9" max="9" width="24.140625" style="8" customWidth="1"/>
+    <col min="10" max="12" width="17.42578125" style="8"/>
+    <col min="13" max="15" width="70.7109375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="70.7109375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="28.42578125" style="8" customWidth="1"/>
+    <col min="18" max="19" width="17.42578125" style="8"/>
+    <col min="20" max="20" width="50.28515625" style="8" customWidth="1"/>
+    <col min="21" max="16384" width="17.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1" t="s">
+    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2" t="s">
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+    </row>
+    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2" t="s">
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2" t="s">
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2" t="s">
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2" t="s">
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" ht="134.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>2017</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>10</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>24</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>2</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>8</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="12">
         <v>0.93899999999999995</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="11" t="s">
+      <c r="S10" s="1"/>
+      <c r="T10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="U10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>2017</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1">
+        <v>416737</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="14">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="15">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="B12" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="1">
         <v>4</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="H12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="1">
+        <v>7</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S12" s="7"/>
+      <c r="T12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="1">
+        <v>6</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="1">
+        <v>6</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="S13" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>5</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="B14" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="1">
+        <v>5</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>6</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="B15" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="1">
+        <v>5</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="1">
+        <v>8</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>7</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="B16" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="1">
         <v>8</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="E16" s="1">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="14">
+        <v>1</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" s="1">
+        <v>7</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" ht="225" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="1">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="14">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="S17" s="13">
+        <v>1</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>9</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="B18" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="14">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="15">
+        <v>3</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="S18" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>10</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="B19" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" s="14">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>11</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="B20" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="14">
+        <v>1</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" s="1">
+        <v>8</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R20" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>12</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="B21" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" s="14">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L21" s="1">
+        <v>5</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="B22" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W22" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="B23" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" s="1">
+        <v>5</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L23" s="1">
+        <v>3</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="B24" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S24" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="B25" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="14">
+        <v>1</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="L25" s="19">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>20</v>
       </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X29">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="1"/>
+        <filter val="1 dGNSS-Empfänger (Helmmontage) für Outdoor-Validierung_x000a_41 Marker im optischen Motion-Capture-System für Indoor-Training"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>